--- a/Downstream_R_Code/Extra_Analysis/Age_Analysis/Pvalue_Table_Age.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Age_Analysis/Pvalue_Table_Age.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft18\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Age_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft20\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Age_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90469E0C-1F97-41C3-A34D-FEB06E0C8265}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7A1FCA-6D1D-4983-8F8C-08ED9B649403}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2265" windowWidth="25200" windowHeight="12030"/>
+    <workbookView xWindow="1365" yWindow="1680" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pvalue_Table_Age" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>HPV.type</t>
   </si>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,12 +1030,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,55 +1126,55 @@
         <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>0.301120936282047</v>
+        <v>0.90657195497685095</v>
       </c>
       <c r="D2" s="2">
-        <v>0.685736564266896</v>
+        <v>0.90657195497685095</v>
       </c>
       <c r="E2" s="2">
-        <v>-9.0317164227195504E-2</v>
+        <v>-4.9422822588671103E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>0.62256532165302303</v>
+        <v>0.563822960323764</v>
       </c>
       <c r="G2" s="2">
-        <v>0.88582641493238201</v>
+        <v>0.62435982803999002</v>
       </c>
       <c r="H2" s="2">
-        <v>0.64458096151247202</v>
+        <v>0.90246252786897296</v>
       </c>
       <c r="I2" s="2">
-        <v>0.79914660992869202</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="J2" s="2">
-        <v>57.1</v>
+        <v>59.1</v>
       </c>
       <c r="K2" s="2">
-        <v>60.7</v>
+        <v>47.6</v>
       </c>
       <c r="L2" s="2">
-        <v>-3.6</v>
+        <v>11.5</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0.54669475906698595</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0.87471161450717705</v>
       </c>
       <c r="O2" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="2">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>0.98062150056828801</v>
+        <v>0.999778271665274</v>
       </c>
       <c r="S2" s="2">
-        <v>0.99652882939284404</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1244,55 +1244,55 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>0.54537097255926603</v>
+        <v>0.74695329627474105</v>
       </c>
       <c r="D4" s="2">
-        <v>0.80739826943055604</v>
+        <v>0.85602991492074598</v>
       </c>
       <c r="E4" s="2">
-        <v>-3.8169051479300303E-2</v>
+        <v>-9.5654485760596607E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>0.96677916866314095</v>
+        <v>0.834142919026575</v>
       </c>
       <c r="G4" s="2">
-        <v>0.96677916866314095</v>
+        <v>0.88044651897361503</v>
       </c>
       <c r="H4" s="2">
-        <v>0.988050724011869</v>
+        <v>0.715422952633749</v>
       </c>
       <c r="I4" s="2">
-        <v>0.988050724011869</v>
+        <v>0.80485082171296796</v>
       </c>
       <c r="J4" s="2">
-        <v>55.8</v>
+        <v>56.8</v>
       </c>
       <c r="K4" s="2">
-        <v>57.5</v>
+        <v>48.5</v>
       </c>
       <c r="L4" s="2">
-        <v>-1.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0.63195603499796804</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0.84989557146674399</v>
       </c>
       <c r="O4" s="2">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2">
         <v>50</v>
       </c>
-      <c r="P4" s="2">
-        <v>52</v>
-      </c>
       <c r="Q4" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R4" s="2">
-        <v>0.99999701912949401</v>
+        <v>0.99959964134007295</v>
       </c>
       <c r="S4" s="2">
-        <v>0.99999701912949401</v>
+        <v>0.99959964134007295</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1303,55 +1303,55 @@
         <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>0.92602212377063198</v>
+        <v>0.63515660618801695</v>
       </c>
       <c r="D5" s="2">
-        <v>0.99588893788711097</v>
+        <v>0.88430398939918597</v>
       </c>
       <c r="E5" s="2">
-        <v>-6.7752689692712503E-2</v>
+        <v>-9.9498942011772395E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>0.69587586076173602</v>
+        <v>0.48171238497201202</v>
       </c>
       <c r="G5" s="2">
-        <v>0.88582641493238201</v>
+        <v>0.62435982803999002</v>
       </c>
       <c r="H5" s="2">
-        <v>0.71035254215883703</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="I5" s="2">
-        <v>0.79914660992869202</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="J5" s="2">
-        <v>21.4</v>
+        <v>18.2</v>
       </c>
       <c r="K5" s="2">
-        <v>25</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L5" s="2">
-        <v>-3.6</v>
+        <v>-15.1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0.310154563132442</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0.87471161450717705</v>
       </c>
       <c r="O5" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R5" s="2">
-        <v>0.99652882939284404</v>
+        <v>0.90203251953046704</v>
       </c>
       <c r="S5" s="2">
-        <v>0.99652882939284404</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1421,55 +1421,55 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>0.56707128505342297</v>
+        <v>0.37368871364572298</v>
       </c>
       <c r="D7" s="2">
-        <v>0.80739826943055604</v>
+        <v>0.68457168108709798</v>
       </c>
       <c r="E7" s="2">
-        <v>-9.2987663032150697E-2</v>
+        <v>-0.116474656398086</v>
       </c>
       <c r="F7" s="2">
-        <v>0.525839173816955</v>
+        <v>0.41467741469966102</v>
       </c>
       <c r="G7" s="2">
-        <v>0.83397655419134797</v>
+        <v>0.71311253236866601</v>
       </c>
       <c r="H7" s="2">
-        <v>0.55605332853772504</v>
+        <v>0.70602965305932497</v>
       </c>
       <c r="I7" s="2">
-        <v>0.71492570811993195</v>
+        <v>0.80485082171296796</v>
       </c>
       <c r="J7" s="2">
-        <v>20.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="K7" s="2">
-        <v>27.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L7" s="2">
-        <v>-6.6</v>
+        <v>-14.4</v>
       </c>
       <c r="M7" s="2">
-        <v>0.60902867452633302</v>
+        <v>0.18468857517965101</v>
       </c>
       <c r="N7" s="2">
-        <v>0.85945227564870696</v>
+        <v>0.84989557146674399</v>
       </c>
       <c r="O7" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="R7" s="2">
-        <v>0.816892848547216</v>
+        <v>0.56573000168311205</v>
       </c>
       <c r="S7" s="2">
-        <v>0.99999701912949401</v>
+        <v>0.99959964134007295</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1480,34 +1480,34 @@
         <v>30</v>
       </c>
       <c r="C8" s="2">
-        <v>0.23253820517915899</v>
+        <v>0.76091546634384599</v>
       </c>
       <c r="D8" s="2">
-        <v>0.685736564266896</v>
+        <v>0.88430398939918597</v>
       </c>
       <c r="E8" s="2">
-        <v>1.6779710789271399E-4</v>
+        <v>3.8155897691157299E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.92793484976247598</v>
+        <v>0.56165062598594495</v>
       </c>
       <c r="G8" s="2">
-        <v>0.92793484976247598</v>
+        <v>0.62435982803999002</v>
       </c>
       <c r="H8" s="2">
-        <v>0.22215277133285999</v>
+        <v>0.86463584375056801</v>
       </c>
       <c r="I8" s="2">
-        <v>0.47616587579382302</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="J8" s="2">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K8" s="2">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="L8" s="2">
-        <v>-3.5</v>
+        <v>-0.3</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -1516,19 +1516,19 @@
         <v>1</v>
       </c>
       <c r="O8" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P8" s="2">
         <v>51</v>
       </c>
       <c r="Q8" s="2">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="R8" s="2">
-        <v>0.26528198884975401</v>
+        <v>0.77783954058670901</v>
       </c>
       <c r="S8" s="2">
-        <v>0.72099740965737402</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1539,55 +1539,55 @@
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>0.23254230897408201</v>
+        <v>0.760915479929552</v>
       </c>
       <c r="D9" s="2">
-        <v>0.80739826943055604</v>
+        <v>0.85602991492074598</v>
       </c>
       <c r="E9" s="2">
-        <v>-4.0439053399211299E-3</v>
+        <v>2.5354813783045001E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>0.94191239248099501</v>
+        <v>0.88044651897361503</v>
       </c>
       <c r="G9" s="2">
-        <v>0.96677916866314095</v>
+        <v>0.88044651897361503</v>
       </c>
       <c r="H9" s="2">
-        <v>0.44041889792946198</v>
+        <v>0.953244255924379</v>
       </c>
       <c r="I9" s="2">
-        <v>0.66062834689419403</v>
+        <v>0.953244255924379</v>
       </c>
       <c r="J9" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="K9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>-2.7</v>
+        <v>-0.3</v>
       </c>
       <c r="M9" s="2">
-        <v>0.60688281581611003</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>0.85945227564870696</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P9" s="2">
         <v>51</v>
       </c>
       <c r="Q9" s="2">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="R9" s="2">
-        <v>0.23738400345697599</v>
+        <v>0.78050068918307602</v>
       </c>
       <c r="S9" s="2">
-        <v>0.83558626229826904</v>
+        <v>0.99959964134007295</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,40 +1598,40 @@
         <v>30</v>
       </c>
       <c r="C10" s="2">
-        <v>9.8613273352138903E-2</v>
+        <v>9.31975579089864E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.685736564266896</v>
+        <v>0.74558046327189198</v>
       </c>
       <c r="E10" s="2">
-        <v>0.24974819441072399</v>
+        <v>0.28588819760240602</v>
       </c>
       <c r="F10" s="2">
-        <v>5.5906236856056002E-2</v>
+        <v>7.2909203977819706E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>0.49046884396448698</v>
+        <v>0.29163681591127899</v>
       </c>
       <c r="H10" s="2">
-        <v>0.19457821361837299</v>
+        <v>0.26924491192127098</v>
       </c>
       <c r="I10" s="2">
-        <v>0.47616587579382302</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="J10" s="2">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="M10" s="2">
-        <v>0.49090909090909102</v>
+        <v>0.48837209302325602</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0.87471161450717705</v>
       </c>
       <c r="O10" s="2">
         <v>71</v>
@@ -1643,10 +1643,10 @@
         <v>21</v>
       </c>
       <c r="R10" s="2">
-        <v>0.22746806658242499</v>
+        <v>0.21030780600260901</v>
       </c>
       <c r="S10" s="2">
-        <v>0.72099740965737402</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1657,40 +1657,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>9.86243193366865E-2</v>
+        <v>9.3198017696365903E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.80739826943055604</v>
+        <v>0.68457168108709798</v>
       </c>
       <c r="E11" s="2">
-        <v>0.19287150486842999</v>
+        <v>0.20582852773785201</v>
       </c>
       <c r="F11" s="2">
-        <v>6.6778174838349899E-2</v>
+        <v>8.07214095816189E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>0.60100357354514899</v>
+        <v>0.71311253236866601</v>
       </c>
       <c r="H11" s="2">
-        <v>0.28958979204048901</v>
+        <v>0.47638055633661802</v>
       </c>
       <c r="I11" s="2">
-        <v>0.52126162567288103</v>
+        <v>0.71457083450492698</v>
       </c>
       <c r="J11" s="2">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="M11" s="2">
-        <v>0.49456362033499901</v>
+        <v>0.49440993788819798</v>
       </c>
       <c r="N11" s="2">
-        <v>0.85945227564870696</v>
+        <v>0.84989557146674399</v>
       </c>
       <c r="O11" s="2">
         <v>71</v>
@@ -1702,10 +1702,10 @@
         <v>21</v>
       </c>
       <c r="R11" s="2">
-        <v>0.25920088050989598</v>
+        <v>0.253299033772659</v>
       </c>
       <c r="S11" s="2">
-        <v>0.83558626229826904</v>
+        <v>0.90354381002906403</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,34 +1716,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>0.84741980812295503</v>
+        <v>0.77376599072428798</v>
       </c>
       <c r="D12" s="2">
-        <v>0.99588893788711097</v>
+        <v>0.88430398939918597</v>
       </c>
       <c r="E12" s="2">
-        <v>-4.7123501420288601E-2</v>
+        <v>-6.8163377430054906E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>0.787401257717673</v>
+        <v>0.62435982803999002</v>
       </c>
       <c r="G12" s="2">
-        <v>0.88582641493238201</v>
+        <v>0.62435982803999002</v>
       </c>
       <c r="H12" s="2">
-        <v>0.25599300277186898</v>
+        <v>0.36641223287411301</v>
       </c>
       <c r="I12" s="2">
-        <v>0.47616587579382302</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="J12" s="2">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="K12" s="2">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -1755,16 +1755,16 @@
         <v>49</v>
       </c>
       <c r="P12" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R12" s="2">
-        <v>0.55463002568750297</v>
+        <v>0.61656672597695705</v>
       </c>
       <c r="S12" s="2">
-        <v>0.99652882939284404</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1834,40 +1834,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>0.438715683039483</v>
+        <v>0.38031760060394298</v>
       </c>
       <c r="D14" s="2">
-        <v>0.80739826943055604</v>
+        <v>0.68457168108709798</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.10970472670832</v>
+        <v>-0.129361865521821</v>
       </c>
       <c r="F14" s="2">
-        <v>0.37416870067741498</v>
+        <v>0.31244295887423701</v>
       </c>
       <c r="G14" s="2">
-        <v>0.83397655419134797</v>
+        <v>0.71311253236866601</v>
       </c>
       <c r="H14" s="2">
-        <v>1.78461330507718E-2</v>
+        <v>3.0695976623715399E-2</v>
       </c>
       <c r="I14" s="10">
-        <v>8.0307598728473206E-2</v>
+        <v>0.138131894806719</v>
       </c>
       <c r="J14" s="2">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="K14" s="2">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="L14" s="2">
-        <v>-2.8</v>
+        <v>-3.7</v>
       </c>
       <c r="M14" s="2">
-        <v>0.66846288106010598</v>
+        <v>0.66102988891857795</v>
       </c>
       <c r="N14" s="2">
-        <v>0.85945227564870696</v>
+        <v>0.84989557146674399</v>
       </c>
       <c r="O14" s="2">
         <v>46</v>
@@ -1879,10 +1879,10 @@
         <v>-5</v>
       </c>
       <c r="R14" s="2">
-        <v>0.371371672132564</v>
+        <v>0.39973051438929103</v>
       </c>
       <c r="S14" s="2">
-        <v>0.83558626229826904</v>
+        <v>0.90354381002906403</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1893,55 +1893,55 @@
         <v>30</v>
       </c>
       <c r="C15" s="3">
-        <v>0.99127827362209497</v>
+        <v>0.70604011025635305</v>
       </c>
       <c r="D15" s="3">
-        <v>0.99588893788711097</v>
+        <v>0.88430398939918597</v>
       </c>
       <c r="E15" s="3">
-        <v>0.115712858908123</v>
+        <v>0.113847153264971</v>
       </c>
       <c r="F15" s="3">
-        <v>0.52025560154178296</v>
+        <v>0.346113972650199</v>
       </c>
       <c r="G15" s="3">
-        <v>0.88582641493238201</v>
+        <v>0.62435982803999002</v>
       </c>
       <c r="H15" s="3">
-        <v>0.26453659766323501</v>
+        <v>0.76485625019275005</v>
       </c>
       <c r="I15" s="3">
-        <v>0.47616587579382302</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="J15" s="3">
-        <v>35.700000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="K15" s="3">
-        <v>25</v>
+        <v>4.8</v>
       </c>
       <c r="L15" s="3">
-        <v>10.7</v>
+        <v>4.3</v>
       </c>
       <c r="M15" s="3">
-        <v>0.56187937380013298</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
       </c>
       <c r="O15" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P15" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R15" s="3">
-        <v>0.96816834173657396</v>
+        <v>0.97515975465206295</v>
       </c>
       <c r="S15" s="3">
-        <v>0.99652882939284404</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2011,55 +2011,55 @@
         <v>20</v>
       </c>
       <c r="C17" s="3">
-        <v>0.80739826943055604</v>
+        <v>0.89684215383236199</v>
       </c>
       <c r="D17" s="3">
-        <v>0.80739826943055604</v>
+        <v>0.89684215383236199</v>
       </c>
       <c r="E17" s="3">
-        <v>0.114456548173707</v>
+        <v>0.12656152383070801</v>
       </c>
       <c r="F17" s="3">
-        <v>0.64864843103771497</v>
+        <v>0.55464308073118496</v>
       </c>
       <c r="G17" s="3">
-        <v>0.83397655419134797</v>
+        <v>0.71311253236866601</v>
       </c>
       <c r="H17" s="3">
-        <v>5.1625040510179503E-3</v>
+        <v>1.0682202742909E-2</v>
       </c>
       <c r="I17" s="9">
-        <v>4.6462536459161499E-2</v>
+        <v>9.6139824686181097E-2</v>
       </c>
       <c r="J17" s="3">
-        <v>30.2</v>
+        <v>13.5</v>
       </c>
       <c r="K17" s="3">
-        <v>20</v>
+        <v>6.1</v>
       </c>
       <c r="L17" s="3">
-        <v>10.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="M17" s="3">
-        <v>0.32137838531464402</v>
+        <v>0.43418066073332001</v>
       </c>
       <c r="N17" s="3">
-        <v>0.85945227564870696</v>
+        <v>0.84989557146674399</v>
       </c>
       <c r="O17" s="3">
+        <v>52</v>
+      </c>
+      <c r="P17" s="3">
         <v>51</v>
-      </c>
-      <c r="P17" s="3">
-        <v>50</v>
       </c>
       <c r="Q17" s="3">
         <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>0.91096845070538301</v>
+        <v>0.89366862346933795</v>
       </c>
       <c r="S17" s="3">
-        <v>0.99999701912949401</v>
+        <v>0.99959964134007295</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2067,37 +2067,37 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
-        <v>0.99588893788711097</v>
+        <v>0.33102530865560797</v>
       </c>
       <c r="D18" s="2">
-        <v>0.99588893788711097</v>
+        <v>0.71164061449687399</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.20639313535315101</v>
+        <v>0.256438934246151</v>
       </c>
       <c r="F18" s="2">
-        <v>0.108993076436553</v>
+        <v>0.21331109091732001</v>
       </c>
       <c r="G18" s="2">
-        <v>0.49046884396448698</v>
+        <v>0.62220934358260405</v>
       </c>
       <c r="H18" s="2">
-        <v>0.829379101054043</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.829379101054043</v>
+        <v>0.13059349950096999</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.21765583250161699</v>
       </c>
       <c r="J18" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2">
-        <v>3.6</v>
-      </c>
       <c r="L18" s="2">
-        <v>-3.6</v>
+        <v>6.7</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
@@ -2106,19 +2106,19 @@
         <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2">
         <v>51</v>
       </c>
       <c r="Q18" s="2">
-        <v>-27</v>
+        <v>21</v>
       </c>
       <c r="R18" s="2">
-        <v>0.32044329318105502</v>
+        <v>0.48605071045710602</v>
       </c>
       <c r="S18" s="2">
-        <v>0.72099740965737402</v>
+        <v>0.99838204650545803</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2126,37 +2126,37 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>0.33102530865560797</v>
+        <v>0.33102898736196201</v>
       </c>
       <c r="D19" s="2">
-        <v>0.71164061449687399</v>
+        <v>0.68457168108709798</v>
       </c>
       <c r="E19" s="2">
-        <v>0.256438934246151</v>
+        <v>0.17460146345487099</v>
       </c>
       <c r="F19" s="2">
-        <v>0.21331109091732001</v>
+        <v>0.165300370515958</v>
       </c>
       <c r="G19" s="2">
-        <v>0.62220934358260405</v>
+        <v>0.71311253236866601</v>
       </c>
       <c r="H19" s="2">
-        <v>0.13059349950096999</v>
+        <v>8.6179695258948003E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>0.21765583250161699</v>
+        <v>0.25853908577684398</v>
       </c>
       <c r="J19" s="2">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
@@ -2174,69 +2174,69 @@
         <v>21</v>
       </c>
       <c r="R19" s="2">
-        <v>0.48605071045710602</v>
+        <v>0.401575026679584</v>
       </c>
       <c r="S19" s="2">
-        <v>0.99838204650545803</v>
+        <v>0.90354381002906403</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>0.78538245606241897</v>
+        <v>0.71943246686880502</v>
       </c>
       <c r="D20" s="2">
-        <v>0.80739826943055604</v>
+        <v>0.88430398939918597</v>
       </c>
       <c r="E20" s="2">
-        <v>0.107189483349661</v>
+        <v>-9.7428451581585404E-2</v>
       </c>
       <c r="F20" s="2">
-        <v>0.38589605306594699</v>
+        <v>0.580010785081988</v>
       </c>
       <c r="G20" s="2">
-        <v>0.83397655419134797</v>
+        <v>0.62435982803999002</v>
       </c>
       <c r="H20" s="2">
-        <v>0.194141512976856</v>
+        <v>0.61115874012778104</v>
       </c>
       <c r="I20" s="2">
-        <v>0.52126162567288103</v>
+        <v>0.97429968704520697</v>
       </c>
       <c r="J20" s="2">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="L20" s="2">
-        <v>-0.2</v>
+        <v>-4.8</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0.48837209302325502</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0.87471161450717705</v>
       </c>
       <c r="O20" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P20" s="2">
         <v>51</v>
       </c>
       <c r="Q20" s="2">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="R20" s="2">
-        <v>0.79475326433011595</v>
+        <v>0.89584766815482497</v>
       </c>
       <c r="S20" s="2">
-        <v>0.99999701912949401</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2244,117 +2244,117 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>0.76115632761151997</v>
+        <v>0.71943247160631096</v>
       </c>
       <c r="D21" s="2">
-        <v>0.99588893788711097</v>
+        <v>0.85602991492074598</v>
       </c>
       <c r="E21" s="2">
-        <v>-7.4489014925434097E-2</v>
+        <v>-7.3175840996043198E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>0.588496238270937</v>
+        <v>0.54687911044777104</v>
       </c>
       <c r="G21" s="2">
-        <v>0.88582641493238201</v>
+        <v>0.71311253236866601</v>
       </c>
       <c r="H21" s="2">
-        <v>0.65372952535760698</v>
+        <v>0.47510574524306798</v>
       </c>
       <c r="I21" s="2">
-        <v>0.79914660992869202</v>
+        <v>0.71457083450492698</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L21" s="2">
-        <v>-3.6</v>
+        <v>-3</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0.47142857142857097</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0.84989557146674399</v>
       </c>
       <c r="O21" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="R21" s="2">
-        <v>0.90541646095555905</v>
+        <v>0.88769897479968796</v>
       </c>
       <c r="S21" s="2">
-        <v>0.99652882939284404</v>
+        <v>0.99959964134007295</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
-        <v>0.76115640127215201</v>
+        <v>0.30204139064399499</v>
       </c>
       <c r="D22" s="2">
-        <v>0.80739826943055604</v>
+        <v>0.88430398939918597</v>
       </c>
       <c r="E22" s="2">
-        <v>-6.17826532398357E-2</v>
+        <v>0.16502672668052301</v>
       </c>
       <c r="F22" s="2">
-        <v>0.59830199986647203</v>
+        <v>5.2509460952156202E-2</v>
       </c>
       <c r="G22" s="2">
-        <v>0.83397655419134797</v>
+        <v>0.29163681591127899</v>
       </c>
       <c r="H22" s="2">
-        <v>0.71534677734360796</v>
+        <v>0.107935058257359</v>
       </c>
       <c r="I22" s="2">
-        <v>0.80476512451155802</v>
+        <v>0.86348046605887496</v>
       </c>
       <c r="J22" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="2">
-        <v>2.5</v>
-      </c>
       <c r="L22" s="2">
-        <v>-2.5</v>
+        <v>9.1</v>
       </c>
       <c r="M22" s="2">
-        <v>0.48192771084337399</v>
+        <v>0.48837209302325602</v>
       </c>
       <c r="N22" s="2">
-        <v>0.85945227564870696</v>
+        <v>0.87471161450717705</v>
       </c>
       <c r="O22" s="2">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P22" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="2">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="R22" s="2">
-        <v>0.89571868120088305</v>
+        <v>0.31004522526545097</v>
       </c>
       <c r="S22" s="2">
-        <v>0.99999701912949401</v>
+        <v>0.999778271665274</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2362,124 +2362,65 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
-        <v>0.304771806340843</v>
+        <v>0.30206017433856702</v>
       </c>
       <c r="D23" s="2">
-        <v>0.685736564266896</v>
+        <v>0.68457168108709798</v>
       </c>
       <c r="E23" s="2">
-        <v>0.14427669147485001</v>
+        <v>0.117663966595806</v>
       </c>
       <c r="F23" s="2">
-        <v>0.343311766044611</v>
+        <v>0.377674352098676</v>
       </c>
       <c r="G23" s="2">
-        <v>0.88582641493238201</v>
+        <v>0.71311253236866601</v>
       </c>
       <c r="H23" s="2">
-        <v>0.180760731605596</v>
+        <v>0.32926645959600098</v>
       </c>
       <c r="I23" s="2">
-        <v>0.47616587579382302</v>
+        <v>0.71457083450492698</v>
       </c>
       <c r="J23" s="2">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="M23" s="2">
-        <v>0.49090909090909102</v>
+        <v>0.49440993788819798</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0.84989557146674399</v>
       </c>
       <c r="O23" s="2">
         <v>61</v>
       </c>
       <c r="P23" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23" s="2">
-        <v>0.30618115610331398</v>
+        <v>0.344654286008368</v>
       </c>
       <c r="S23" s="2">
-        <v>0.72099740965737402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.30477187082350199</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.80739826943055604</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.10981080704545999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.35826533531675903</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.83397655419134797</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.23747970949188901</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.52126162567288103</v>
-      </c>
-      <c r="J24" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.49456362033499901</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.85945227564870696</v>
-      </c>
-      <c r="O24" s="2">
-        <v>61</v>
-      </c>
-      <c r="P24" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>11</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.33632136816435299</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0.83558626229826904</v>
+        <v>0.90354381002906403</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S24">
-    <sortCondition ref="A2:A24"/>
-    <sortCondition ref="B2:B24"/>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
+    <sortCondition ref="A2:A23"/>
+    <sortCondition ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Downstream_R_Code/Extra_Analysis/Age_Analysis/Pvalue_Table_Age.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Age_Analysis/Pvalue_Table_Age.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft20\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Age_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_PLOS_ONE_Draft24\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Age_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7A1FCA-6D1D-4983-8F8C-08ED9B649403}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0FD673-D896-4C18-9751-9C5E80C95E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1680" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="27165" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pvalue_Table_Age" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,55 +1126,55 @@
         <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>0.90657195497685095</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="D2" s="2">
-        <v>0.90657195497685095</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="E2" s="2">
-        <v>-4.9422822588671103E-2</v>
+        <v>-2.7351629397191001E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>0.563822960323764</v>
+        <v>0.66427680882694495</v>
       </c>
       <c r="G2" s="2">
-        <v>0.62435982803999002</v>
+        <v>0.66427680882694495</v>
       </c>
       <c r="H2" s="2">
-        <v>0.90246252786897296</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="I2" s="2">
-        <v>0.97429968704520697</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J2" s="2">
         <v>59.1</v>
       </c>
       <c r="K2" s="2">
-        <v>47.6</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2">
-        <v>11.5</v>
+        <v>14.1</v>
       </c>
       <c r="M2" s="2">
-        <v>0.54669475906698595</v>
+        <v>0.53686264302584796</v>
       </c>
       <c r="N2" s="2">
-        <v>0.87471161450717705</v>
+        <v>0.85898022884135605</v>
       </c>
       <c r="O2" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" s="2">
         <v>51</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
       <c r="S2" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1191,19 +1191,19 @@
         <v>0.72766956704005603</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1908511697808903E-2</v>
+        <v>4.2129613789513E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>0.49884413285885898</v>
+        <v>0.49957477318721999</v>
       </c>
       <c r="G3" s="2">
-        <v>0.63069023924371703</v>
+        <v>0.63044606176925599</v>
       </c>
       <c r="H3" s="2">
-        <v>0.60256984223475596</v>
+        <v>0.60319212190718097</v>
       </c>
       <c r="I3" s="2">
-        <v>0.75321230279344498</v>
+        <v>0.68222153867852398</v>
       </c>
       <c r="J3" s="2">
         <v>53.3</v>
@@ -1244,40 +1244,40 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>0.74695329627474105</v>
+        <v>0.67616154928161198</v>
       </c>
       <c r="D4" s="2">
-        <v>0.85602991492074598</v>
+        <v>0.83115877962379403</v>
       </c>
       <c r="E4" s="2">
-        <v>-9.5654485760596607E-3</v>
+        <v>3.2073971714870202E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>0.834142919026575</v>
+        <v>0.74808046573328801</v>
       </c>
       <c r="G4" s="2">
-        <v>0.88044651897361503</v>
+        <v>0.84159052394994904</v>
       </c>
       <c r="H4" s="2">
-        <v>0.715422952633749</v>
+        <v>0.66008905740011503</v>
       </c>
       <c r="I4" s="2">
-        <v>0.80485082171296796</v>
+        <v>0.772856828595752</v>
       </c>
       <c r="J4" s="2">
         <v>56.8</v>
       </c>
       <c r="K4" s="2">
-        <v>48.5</v>
+        <v>46.9</v>
       </c>
       <c r="L4" s="2">
-        <v>8.3000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="M4" s="2">
-        <v>0.63195603499796804</v>
+        <v>0.47354890595265398</v>
       </c>
       <c r="N4" s="2">
-        <v>0.84989557146674399</v>
+        <v>0.74296675191815797</v>
       </c>
       <c r="O4" s="2">
         <v>52</v>
@@ -1289,10 +1289,10 @@
         <v>2</v>
       </c>
       <c r="R4" s="2">
-        <v>0.99959964134007295</v>
+        <v>0.99823783623762896</v>
       </c>
       <c r="S4" s="2">
-        <v>0.99959964134007295</v>
+        <v>0.99823783623762896</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1303,55 +1303,55 @@
         <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>0.63515660618801695</v>
+        <v>0.57914872084388802</v>
       </c>
       <c r="D5" s="2">
-        <v>0.88430398939918597</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="E5" s="2">
-        <v>-9.9498942011772395E-2</v>
+        <v>-0.113990390070016</v>
       </c>
       <c r="F5" s="2">
-        <v>0.48171238497201202</v>
+        <v>0.42903133172415597</v>
       </c>
       <c r="G5" s="2">
-        <v>0.62435982803999002</v>
+        <v>0.66427680882694495</v>
       </c>
       <c r="H5" s="2">
-        <v>0.97429968704520697</v>
+        <v>0.93930299744600299</v>
       </c>
       <c r="I5" s="2">
-        <v>0.97429968704520697</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J5" s="2">
         <v>18.2</v>
       </c>
       <c r="K5" s="2">
-        <v>33.299999999999997</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2">
-        <v>-15.1</v>
+        <v>-16.8</v>
       </c>
       <c r="M5" s="2">
-        <v>0.310154563132442</v>
+        <v>0.29827160314965201</v>
       </c>
       <c r="N5" s="2">
-        <v>0.87471161450717705</v>
+        <v>0.85898022884135605</v>
       </c>
       <c r="O5" s="2">
         <v>49</v>
       </c>
       <c r="P5" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R5" s="2">
-        <v>0.90203251953046704</v>
+        <v>0.86333378125528204</v>
       </c>
       <c r="S5" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1365,22 +1365,22 @@
         <v>0.42698436869812501</v>
       </c>
       <c r="D6" s="2">
-        <v>0.71164061449687399</v>
+        <v>0.71164061449687499</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.13914254453837199</v>
+        <v>-0.13909713645692801</v>
       </c>
       <c r="F6" s="2">
-        <v>0.63069023924371703</v>
+        <v>0.63044606176925599</v>
       </c>
       <c r="G6" s="2">
-        <v>0.63069023924371703</v>
+        <v>0.63044606176925599</v>
       </c>
       <c r="H6" s="2">
-        <v>0.77341625840514605</v>
+        <v>0.68222153867852398</v>
       </c>
       <c r="I6" s="2">
-        <v>0.77341625840514605</v>
+        <v>0.68222153867852398</v>
       </c>
       <c r="J6" s="2">
         <v>20</v>
@@ -1421,40 +1421,40 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>0.37368871364572298</v>
+        <v>0.34309822494025499</v>
       </c>
       <c r="D7" s="2">
-        <v>0.68457168108709798</v>
+        <v>0.65096489761126397</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.116474656398086</v>
+        <v>-0.124816444596139</v>
       </c>
       <c r="F7" s="2">
-        <v>0.41467741469966102</v>
+        <v>0.38030698598425799</v>
       </c>
       <c r="G7" s="2">
-        <v>0.71311253236866601</v>
+        <v>0.70766308104891595</v>
       </c>
       <c r="H7" s="2">
-        <v>0.70602965305932497</v>
+        <v>0.674845222161369</v>
       </c>
       <c r="I7" s="2">
-        <v>0.80485082171296796</v>
+        <v>0.772856828595752</v>
       </c>
       <c r="J7" s="2">
         <v>18.899999999999999</v>
       </c>
       <c r="K7" s="2">
-        <v>33.299999999999997</v>
+        <v>34.4</v>
       </c>
       <c r="L7" s="2">
-        <v>-14.4</v>
+        <v>-15.5</v>
       </c>
       <c r="M7" s="2">
-        <v>0.18468857517965101</v>
+        <v>0.17590115423605299</v>
       </c>
       <c r="N7" s="2">
-        <v>0.84989557146674399</v>
+        <v>0.74296675191815797</v>
       </c>
       <c r="O7" s="2">
         <v>48</v>
@@ -1466,10 +1466,10 @@
         <v>-4</v>
       </c>
       <c r="R7" s="2">
-        <v>0.56573000168311205</v>
+        <v>0.52434320811819801</v>
       </c>
       <c r="S7" s="2">
-        <v>0.99959964134007295</v>
+        <v>0.94381777461275596</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1480,34 +1480,34 @@
         <v>30</v>
       </c>
       <c r="C8" s="2">
-        <v>0.76091546634384599</v>
+        <v>0.73880779171901101</v>
       </c>
       <c r="D8" s="2">
-        <v>0.88430398939918597</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="E8" s="2">
-        <v>3.8155897691157299E-2</v>
+        <v>3.4000423804218999E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.56165062598594495</v>
+        <v>0.57890504946636701</v>
       </c>
       <c r="G8" s="2">
-        <v>0.62435982803999002</v>
+        <v>0.66427680882694495</v>
       </c>
       <c r="H8" s="2">
-        <v>0.86463584375056801</v>
+        <v>0.85135331264584002</v>
       </c>
       <c r="I8" s="2">
-        <v>0.97429968704520697</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J8" s="2">
         <v>4.5</v>
       </c>
       <c r="K8" s="2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -1525,10 +1525,10 @@
         <v>-3</v>
       </c>
       <c r="R8" s="2">
-        <v>0.77783954058670901</v>
+        <v>0.77959444004005096</v>
       </c>
       <c r="S8" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1539,34 +1539,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>0.760915479929552</v>
+        <v>0.73880780411003899</v>
       </c>
       <c r="D9" s="2">
-        <v>0.85602991492074598</v>
+        <v>0.83115877962379403</v>
       </c>
       <c r="E9" s="2">
-        <v>2.5354813783045001E-2</v>
+        <v>2.3454138405693398E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>0.88044651897361503</v>
+        <v>0.90086196053467904</v>
       </c>
       <c r="G9" s="2">
-        <v>0.88044651897361503</v>
+        <v>0.90086196053467904</v>
       </c>
       <c r="H9" s="2">
-        <v>0.953244255924379</v>
+        <v>0.49056682132010898</v>
       </c>
       <c r="I9" s="2">
-        <v>0.953244255924379</v>
+        <v>0.772856828595752</v>
       </c>
       <c r="J9" s="2">
         <v>2.7</v>
       </c>
       <c r="K9" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L9" s="2">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -1584,10 +1584,10 @@
         <v>-3</v>
       </c>
       <c r="R9" s="2">
-        <v>0.78050068918307602</v>
+        <v>0.78161576709737601</v>
       </c>
       <c r="S9" s="2">
-        <v>0.99959964134007295</v>
+        <v>0.99823783623762896</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,25 +1598,25 @@
         <v>30</v>
       </c>
       <c r="C10" s="2">
-        <v>9.31975579089864E-2</v>
+        <v>9.4262635576057394E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.74558046327189198</v>
+        <v>0.75410108460845904</v>
       </c>
       <c r="E10" s="2">
-        <v>0.28588819760240602</v>
+        <v>0.28452233818157602</v>
       </c>
       <c r="F10" s="2">
-        <v>7.2909203977819706E-2</v>
+        <v>7.8531508588501803E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>0.29163681591127899</v>
+        <v>0.31412603435400699</v>
       </c>
       <c r="H10" s="2">
-        <v>0.26924491192127098</v>
+        <v>0.35895362112261903</v>
       </c>
       <c r="I10" s="2">
-        <v>0.97429968704520697</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J10" s="2">
         <v>9.1</v>
@@ -1628,10 +1628,10 @@
         <v>9.1</v>
       </c>
       <c r="M10" s="2">
-        <v>0.48837209302325602</v>
+        <v>0.48896631823461101</v>
       </c>
       <c r="N10" s="2">
-        <v>0.87471161450717705</v>
+        <v>0.85898022884135605</v>
       </c>
       <c r="O10" s="2">
         <v>71</v>
@@ -1643,10 +1643,10 @@
         <v>21</v>
       </c>
       <c r="R10" s="2">
-        <v>0.21030780600260901</v>
+        <v>0.21770840187662699</v>
       </c>
       <c r="S10" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1657,25 +1657,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>9.3198017696365903E-2</v>
+        <v>9.4262956062191899E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.68457168108709798</v>
+        <v>0.65096489761126397</v>
       </c>
       <c r="E11" s="2">
-        <v>0.20582852773785201</v>
+        <v>0.20514905338205999</v>
       </c>
       <c r="F11" s="2">
-        <v>8.07214095816189E-2</v>
+        <v>8.5903691028626605E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>0.71311253236866601</v>
+        <v>0.70766308104891595</v>
       </c>
       <c r="H11" s="2">
-        <v>0.47638055633661802</v>
+        <v>0.88412186415216598</v>
       </c>
       <c r="I11" s="2">
-        <v>0.71457083450492698</v>
+        <v>0.88412186415216598</v>
       </c>
       <c r="J11" s="2">
         <v>5.4</v>
@@ -1687,25 +1687,25 @@
         <v>5.4</v>
       </c>
       <c r="M11" s="2">
-        <v>0.49440993788819798</v>
+        <v>0.495311167945439</v>
       </c>
       <c r="N11" s="2">
-        <v>0.84989557146674399</v>
+        <v>0.74296675191815797</v>
       </c>
       <c r="O11" s="2">
         <v>71</v>
       </c>
       <c r="P11" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11" s="2">
-        <v>0.253299033772659</v>
+        <v>0.25916810213015201</v>
       </c>
       <c r="S11" s="2">
-        <v>0.90354381002906403</v>
+        <v>0.90836904659644502</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,34 +1716,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>0.77376599072428798</v>
+        <v>0.74105713295141395</v>
       </c>
       <c r="D12" s="2">
-        <v>0.88430398939918597</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="E12" s="2">
-        <v>-6.8163377430054906E-2</v>
+        <v>-7.5098235417715098E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>0.62435982803999002</v>
+        <v>0.59610431659846697</v>
       </c>
       <c r="G12" s="2">
-        <v>0.62435982803999002</v>
+        <v>0.66427680882694495</v>
       </c>
       <c r="H12" s="2">
-        <v>0.36641223287411301</v>
+        <v>0.58847574026351601</v>
       </c>
       <c r="I12" s="2">
-        <v>0.97429968704520697</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J12" s="2">
         <v>9.1</v>
       </c>
       <c r="K12" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -1761,10 +1761,10 @@
         <v>-2</v>
       </c>
       <c r="R12" s="2">
-        <v>0.61656672597695705</v>
+        <v>0.58775023227115197</v>
       </c>
       <c r="S12" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1778,22 +1778,22 @@
         <v>0.33784505036975399</v>
       </c>
       <c r="D13" s="2">
-        <v>0.71164061449687399</v>
+        <v>0.71164061449687499</v>
       </c>
       <c r="E13" s="2">
         <v>-0.24094693725883801</v>
       </c>
       <c r="F13" s="2">
-        <v>0.24888373743304101</v>
+        <v>0.24890638850817901</v>
       </c>
       <c r="G13" s="2">
-        <v>0.62220934358260405</v>
+        <v>0.62226597127044703</v>
       </c>
       <c r="H13" s="2">
-        <v>6.7282489098625595E-2</v>
+        <v>2.8476497087449999E-2</v>
       </c>
       <c r="I13" s="10">
-        <v>0.16820622274656399</v>
+        <v>7.1191242718625106E-2</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1834,55 +1834,55 @@
         <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>0.38031760060394298</v>
+        <v>0.36164716533959101</v>
       </c>
       <c r="D14" s="2">
-        <v>0.68457168108709798</v>
+        <v>0.65096489761126397</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.129361865521821</v>
+        <v>-0.133283282967957</v>
       </c>
       <c r="F14" s="2">
-        <v>0.31244295887423701</v>
+        <v>0.29819711971031199</v>
       </c>
       <c r="G14" s="2">
-        <v>0.71311253236866601</v>
+        <v>0.70766308104891595</v>
       </c>
       <c r="H14" s="2">
-        <v>3.0695976623715399E-2</v>
+        <v>2.9874284832304799E-2</v>
       </c>
       <c r="I14" s="10">
-        <v>0.138131894806719</v>
+        <v>0.134434281745372</v>
       </c>
       <c r="J14" s="2">
         <v>5.4</v>
       </c>
       <c r="K14" s="2">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="L14" s="2">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="M14" s="2">
-        <v>0.66102988891857795</v>
+        <v>0.65707918832322398</v>
       </c>
       <c r="N14" s="2">
-        <v>0.84989557146674399</v>
+        <v>0.84481609927271595</v>
       </c>
       <c r="O14" s="2">
         <v>46</v>
       </c>
       <c r="P14" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="R14" s="2">
-        <v>0.39973051438929103</v>
+        <v>0.382474213279755</v>
       </c>
       <c r="S14" s="2">
-        <v>0.90354381002906403</v>
+        <v>0.90836904659644502</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1893,34 +1893,34 @@
         <v>30</v>
       </c>
       <c r="C15" s="3">
-        <v>0.70604011025635305</v>
+        <v>0.67930215261387905</v>
       </c>
       <c r="D15" s="3">
-        <v>0.88430398939918597</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="E15" s="3">
-        <v>0.113847153264971</v>
+        <v>0.10755160672276599</v>
       </c>
       <c r="F15" s="3">
-        <v>0.346113972650199</v>
+        <v>0.37014406898396801</v>
       </c>
       <c r="G15" s="3">
-        <v>0.62435982803999002</v>
+        <v>0.66427680882694495</v>
       </c>
       <c r="H15" s="3">
-        <v>0.76485625019275005</v>
+        <v>0.78347791847949999</v>
       </c>
       <c r="I15" s="3">
-        <v>0.97429968704520697</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J15" s="3">
         <v>9.1</v>
       </c>
       <c r="K15" s="3">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L15" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M15" s="3">
         <v>1</v>
@@ -1938,10 +1938,10 @@
         <v>-3</v>
       </c>
       <c r="R15" s="3">
-        <v>0.97515975465206295</v>
+        <v>0.97625891325135905</v>
       </c>
       <c r="S15" s="3">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1952,25 +1952,25 @@
         <v>29</v>
       </c>
       <c r="C16" s="3">
-        <v>0.64842617159300298</v>
+        <v>0.64842617159300198</v>
       </c>
       <c r="D16" s="3">
         <v>0.72766956704005603</v>
       </c>
       <c r="E16" s="3">
-        <v>0.139032186550825</v>
+        <v>0.13897514001272501</v>
       </c>
       <c r="F16" s="3">
-        <v>0.57771034817975697</v>
+        <v>0.58317362467177003</v>
       </c>
       <c r="G16" s="3">
-        <v>0.63069023924371703</v>
+        <v>0.63044606176925599</v>
       </c>
       <c r="H16" s="3">
-        <v>3.4982715970794899E-3</v>
+        <v>4.9125736384284498E-3</v>
       </c>
       <c r="I16" s="8">
-        <v>1.7491357985397499E-2</v>
+        <v>2.45628681921422E-2</v>
       </c>
       <c r="J16" s="3">
         <v>20</v>
@@ -2011,40 +2011,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="3">
-        <v>0.89684215383236199</v>
+        <v>0.91506188931111598</v>
       </c>
       <c r="D17" s="3">
-        <v>0.89684215383236199</v>
+        <v>0.91506188931111598</v>
       </c>
       <c r="E17" s="3">
-        <v>0.12656152383070801</v>
+        <v>0.12257817521279001</v>
       </c>
       <c r="F17" s="3">
-        <v>0.55464308073118496</v>
+        <v>0.58257738434423301</v>
       </c>
       <c r="G17" s="3">
-        <v>0.71311253236866601</v>
+        <v>0.74902806558544299</v>
       </c>
       <c r="H17" s="3">
-        <v>1.0682202742909E-2</v>
+        <v>1.39701381001422E-2</v>
       </c>
       <c r="I17" s="9">
-        <v>9.6139824686181097E-2</v>
+        <v>0.12573124290127999</v>
       </c>
       <c r="J17" s="3">
         <v>13.5</v>
       </c>
       <c r="K17" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L17" s="3">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M17" s="3">
-        <v>0.43418066073332001</v>
+        <v>0.43739554334278902</v>
       </c>
       <c r="N17" s="3">
-        <v>0.84989557146674399</v>
+        <v>0.74296675191815797</v>
       </c>
       <c r="O17" s="3">
         <v>52</v>
@@ -2056,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>0.89366862346933795</v>
+        <v>0.91405341712083099</v>
       </c>
       <c r="S17" s="3">
-        <v>0.99959964134007295</v>
+        <v>0.99823783623762896</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2073,22 +2073,22 @@
         <v>0.33102530865560797</v>
       </c>
       <c r="D18" s="2">
-        <v>0.71164061449687399</v>
+        <v>0.71164061449687499</v>
       </c>
       <c r="E18" s="2">
-        <v>0.256438934246151</v>
+        <v>0.256437782206903</v>
       </c>
       <c r="F18" s="2">
-        <v>0.21331109091732001</v>
+        <v>0.213025544862883</v>
       </c>
       <c r="G18" s="2">
-        <v>0.62220934358260405</v>
+        <v>0.62226597127044703</v>
       </c>
       <c r="H18" s="2">
-        <v>0.13059349950096999</v>
+        <v>0.119003241545431</v>
       </c>
       <c r="I18" s="10">
-        <v>0.21765583250161699</v>
+        <v>0.19833873590905199</v>
       </c>
       <c r="J18" s="2">
         <v>6.7</v>
@@ -2129,25 +2129,25 @@
         <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>0.33102898736196201</v>
+        <v>0.33102898775258099</v>
       </c>
       <c r="D19" s="2">
-        <v>0.68457168108709798</v>
+        <v>0.65096489761126397</v>
       </c>
       <c r="E19" s="2">
-        <v>0.17460146345487099</v>
+        <v>0.17403872593518699</v>
       </c>
       <c r="F19" s="2">
-        <v>0.165300370515958</v>
+        <v>0.166163520940247</v>
       </c>
       <c r="G19" s="2">
-        <v>0.71311253236866601</v>
+        <v>0.70766308104891595</v>
       </c>
       <c r="H19" s="2">
-        <v>8.6179695258948003E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.25853908577684398</v>
+        <v>6.1667044815028299E-2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.18500113444508501</v>
       </c>
       <c r="J19" s="2">
         <v>2.7</v>
@@ -2174,10 +2174,10 @@
         <v>21</v>
       </c>
       <c r="R19" s="2">
-        <v>0.401575026679584</v>
+        <v>0.40371957626508598</v>
       </c>
       <c r="S19" s="2">
-        <v>0.90354381002906403</v>
+        <v>0.90836904659644502</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2188,40 +2188,40 @@
         <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>0.71943246686880502</v>
+        <v>0.70478999943425602</v>
       </c>
       <c r="D20" s="2">
-        <v>0.88430398939918597</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="E20" s="2">
-        <v>-9.7428451581585404E-2</v>
+        <v>-0.101997581842152</v>
       </c>
       <c r="F20" s="2">
-        <v>0.580010785081988</v>
+        <v>0.56663628763941298</v>
       </c>
       <c r="G20" s="2">
-        <v>0.62435982803999002</v>
+        <v>0.66427680882694495</v>
       </c>
       <c r="H20" s="2">
-        <v>0.61115874012778104</v>
+        <v>0.93758187543411997</v>
       </c>
       <c r="I20" s="2">
-        <v>0.97429968704520697</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L20" s="2">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="M20" s="2">
-        <v>0.48837209302325502</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="N20" s="2">
-        <v>0.87471161450717705</v>
+        <v>0.85898022884135605</v>
       </c>
       <c r="O20" s="2">
         <v>46</v>
@@ -2233,10 +2233,10 @@
         <v>-5</v>
       </c>
       <c r="R20" s="2">
-        <v>0.89584766815482497</v>
+        <v>0.87941538030211397</v>
       </c>
       <c r="S20" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2247,40 +2247,40 @@
         <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>0.71943247160631096</v>
+        <v>0.70479000283076498</v>
       </c>
       <c r="D21" s="2">
-        <v>0.85602991492074598</v>
+        <v>0.83115877962379403</v>
       </c>
       <c r="E21" s="2">
-        <v>-7.3175840996043198E-2</v>
+        <v>-7.5183766435560295E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>0.54687911044777104</v>
+        <v>0.53376808328770897</v>
       </c>
       <c r="G21" s="2">
-        <v>0.71311253236866601</v>
+        <v>0.74902806558544299</v>
       </c>
       <c r="H21" s="2">
-        <v>0.47510574524306798</v>
+        <v>0.686983847640668</v>
       </c>
       <c r="I21" s="2">
-        <v>0.71457083450492698</v>
+        <v>0.772856828595752</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L21" s="2">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="M21" s="2">
-        <v>0.47142857142857097</v>
+        <v>0.46376811594202899</v>
       </c>
       <c r="N21" s="2">
-        <v>0.84989557146674399</v>
+        <v>0.74296675191815797</v>
       </c>
       <c r="O21" s="2">
         <v>46</v>
@@ -2292,10 +2292,10 @@
         <v>-5</v>
       </c>
       <c r="R21" s="2">
-        <v>0.88769897479968796</v>
+        <v>0.87731212547330295</v>
       </c>
       <c r="S21" s="2">
-        <v>0.99959964134007295</v>
+        <v>0.99823783623762896</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2306,25 +2306,25 @@
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <v>0.30204139064399499</v>
+        <v>0.31493410525353499</v>
       </c>
       <c r="D22" s="2">
-        <v>0.88430398939918597</v>
+        <v>0.80534417731709196</v>
       </c>
       <c r="E22" s="2">
-        <v>0.16502672668052301</v>
+        <v>0.16200574597307801</v>
       </c>
       <c r="F22" s="2">
-        <v>5.2509460952156202E-2</v>
+        <v>5.59523962305533E-2</v>
       </c>
       <c r="G22" s="2">
-        <v>0.29163681591127899</v>
+        <v>0.31412603435400699</v>
       </c>
       <c r="H22" s="2">
-        <v>0.107935058257359</v>
+        <v>0.134690026410582</v>
       </c>
       <c r="I22" s="2">
-        <v>0.86348046605887496</v>
+        <v>0.99597748221057103</v>
       </c>
       <c r="J22" s="2">
         <v>9.1</v>
@@ -2336,25 +2336,25 @@
         <v>9.1</v>
       </c>
       <c r="M22" s="2">
-        <v>0.48837209302325602</v>
+        <v>0.48896631823461101</v>
       </c>
       <c r="N22" s="2">
-        <v>0.87471161450717705</v>
+        <v>0.85898022884135605</v>
       </c>
       <c r="O22" s="2">
         <v>61</v>
       </c>
       <c r="P22" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R22" s="2">
-        <v>0.31004522526545097</v>
+        <v>0.32257621489460597</v>
       </c>
       <c r="S22" s="2">
-        <v>0.999778271665274</v>
+        <v>0.99999345791608896</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2365,25 +2365,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="2">
-        <v>0.30206017433856702</v>
+        <v>0.31494873120335898</v>
       </c>
       <c r="D23" s="2">
-        <v>0.68457168108709798</v>
+        <v>0.65096489761126397</v>
       </c>
       <c r="E23" s="2">
-        <v>0.117663966595806</v>
+        <v>0.116203939816742</v>
       </c>
       <c r="F23" s="2">
-        <v>0.377674352098676</v>
+        <v>0.39314615613828702</v>
       </c>
       <c r="G23" s="2">
-        <v>0.71311253236866601</v>
+        <v>0.70766308104891595</v>
       </c>
       <c r="H23" s="2">
-        <v>0.32926645959600098</v>
+        <v>0.29422312518000499</v>
       </c>
       <c r="I23" s="2">
-        <v>0.71457083450492698</v>
+        <v>0.66200203165501204</v>
       </c>
       <c r="J23" s="2">
         <v>5.4</v>
@@ -2395,10 +2395,10 @@
         <v>5.4</v>
       </c>
       <c r="M23" s="2">
-        <v>0.49440993788819798</v>
+        <v>0.495311167945439</v>
       </c>
       <c r="N23" s="2">
-        <v>0.84989557146674399</v>
+        <v>0.74296675191815797</v>
       </c>
       <c r="O23" s="2">
         <v>61</v>
@@ -2410,18 +2410,19 @@
         <v>10</v>
       </c>
       <c r="R23" s="2">
-        <v>0.344654286008368</v>
+        <v>0.35339892258426803</v>
       </c>
       <c r="S23" s="2">
-        <v>0.90354381002906403</v>
+        <v>0.90836904659644502</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S1" xr:uid="{4F87867C-E8B8-4372-90C6-0EC6A1F7264F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
     <sortCondition ref="A2:A23"/>
     <sortCondition ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>